--- a/projects/sociocracy/cc_circle_v11.xlsx
+++ b/projects/sociocracy/cc_circle_v11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Ongoing Collaborations</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Board Members</t>
   </si>
   <si>
@@ -202,115 +199,169 @@
     <t>light blue</t>
   </si>
   <si>
-    <t>By 2034, the world will be smarter, more 
- connected, and more empowered. 
- Communities thrive on informed, engaged 
- participation, with seamless 
- collaboration between digital and 
- physical spaces. At Carbon Copy, we 
- imagine a future where individuals and 
- groups learn, deliberate, and act 
- together with clarity and confidence. Our 
- mission is to make learning, 
- collective decision-making, and 
- problem-solving simpler, more engaging, 
- impactful, and accessible. By blending 
- cutting-edge technology with 
- accessible, community-driven tools, we 
- enable people to understand complex 
- ideas, and collaborate fluidly across 
- borders, fostering trust, transparency, 
- and shared progress.</t>
-  </si>
-  <si>
-    <t>A group of experts offering non-binding guidance and recommendations to the organization.</t>
-  </si>
-  <si>
-    <t>We approve budgets, projects, and 
- partnerships, oversee committees and 
- ensure alignment with the 2033 vision. We  
- actively support fundraising and 
- operational goals and are familiar with  
- OKR theory.</t>
-  </si>
-  <si>
-    <t>Essential programs and services that define the organization's purpose.</t>
-  </si>
-  <si>
-    <t>Individuals or organizations officially affiliated with Carbon Copy, contributing to its success.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Partnerships with other organizations or individuals to achieve shared objectives.</t>
-  </si>
-  <si>
-    <t>Individuals serving on the Board of Directors, providing leadership, expertise, and decision-making for the non-profit.</t>
-  </si>
-  <si>
-    <t>Individuals providing specialized knowledge or mentorship to support organizational goals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> External entities collaborating with the organization on mutual projects or goals.</t>
-  </si>
-  <si>
-    <t>A member who actively participates in organizational activities and decision-making.</t>
-  </si>
-  <si>
-    <t>Financial supporters who provide funding, often expecting social impact returns.</t>
-  </si>
-  <si>
-    <t>A member who supports the organization but does not actively participate.</t>
-  </si>
-  <si>
-    <t>A specific initiative or collaboration focused on advancing democratic principles and participation.</t>
-  </si>
-  <si>
-    <t>A project or initiative focused on advancing dialogue and civic engagement.</t>
-  </si>
-  <si>
-    <t>Creates educational, promotional, or informational materials for organizational activities.</t>
-  </si>
-  <si>
-    <t>Ensures proper collection, storage, and analysis of organizational data.</t>
-  </si>
-  <si>
-    <t>Manages internal and external messaging to engage stakeholders effectively.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Designs and improves tools, systems, or products that support the organization's mission</t>
-  </si>
-  <si>
-    <t>Plans and executes events that support the organization's goals and engage its audience.</t>
-  </si>
-  <si>
-    <t>Designs and improves tools, systems, or products that support the organization's mission.</t>
-  </si>
-  <si>
-    <t>How can we improve the app? What is 
- needed to bring it to the next level?</t>
-  </si>
-  <si>
-    <t>We look for fitting grants and write 
- them.</t>
-  </si>
-  <si>
-    <t>How to find people which are aligned 
- with our mission? How can they enrich our 
- goals? How do we onboard new people?</t>
-  </si>
-  <si>
-    <t>Provides operational support to ensure the organization runs smoothly.</t>
-  </si>
-  <si>
-    <t>Oversees the allocation and management of funds to ensure financial sustainability.</t>
-  </si>
-  <si>
-    <t>An individual or team responsible for generating donations and financial support.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The process of overseeing and maintaining relationships with the organization's members. </t>
-  </si>
-  <si>
-    <t>Coordinates and maintains relationships with collaborators and stakeholders.</t>
+    <t>By 2034, the world will be smarter,
+more connected, and more empowered.
+Communities thrive on informed,
+engaged participation, with
+seamless collaboration between
+digital and physical spaces. At
+Carbon Copy, we imagine a future
+where individuals and groups learn,
+deliberate, and act together with
+clarity and confidence. Our mission
+is to make learning, collective
+decision-making, and
+problem-solving simpler, more
+engaging, impactful, and
+accessible. By blending
+cutting-edge technology with
+accessible, community-driven tools,
+we enable people to understand
+complex ideas, and collaborate
+fluidly across borders, fostering
+trust, transparency, and shared
+progress.</t>
+  </si>
+  <si>
+    <t>A group of experts offering
+non-binding guidance and
+recommendations to the
+organization.</t>
+  </si>
+  <si>
+    <t>We approve budgets, projects, and
+partnerships, oversee committees
+and ensure alignment with the 2033
+vision. We actively support
+fundraising and operational goals
+and are familiar with OKR theory.</t>
+  </si>
+  <si>
+    <t>Essential programs and services
+that define the organization's
+purpose.</t>
+  </si>
+  <si>
+    <t>Individuals or organizations
+officially affiliated with Carbon
+Copy, contributing to its success.</t>
+  </si>
+  <si>
+    <t>Partnerships with other
+organizations or individuals to
+achieve shared objectives.</t>
+  </si>
+  <si>
+    <t>Individuals serving on the Board of
+Directors, providing leadership,
+expertise, and decision-making for
+the non-profit.</t>
+  </si>
+  <si>
+    <t>Individuals providing specialized
+knowledge or mentorship to support
+organizational goals.</t>
+  </si>
+  <si>
+    <t>External entities collaborating
+with the organization on mutual
+projects or goals.</t>
+  </si>
+  <si>
+    <t>A member who actively participates
+in organizational activities and
+decision-making.</t>
+  </si>
+  <si>
+    <t>Financial supporters who provide
+funding, often expecting social
+impact returns.</t>
+  </si>
+  <si>
+    <t>A member who supports the
+organization but does not actively
+participate.</t>
+  </si>
+  <si>
+    <t>A specific initiative or
+collaboration focused on advancing
+democratic principles and
+participation.</t>
+  </si>
+  <si>
+    <t>A project or initiative focused on
+advancing dialogue and civic
+engagement.</t>
+  </si>
+  <si>
+    <t>Creates educational, promotional,
+or informational materials for
+organizational activities.</t>
+  </si>
+  <si>
+    <t>Ensures proper collection, storage,
+and analysis of organizational
+data.</t>
+  </si>
+  <si>
+    <t>Manages internal and external
+messaging to engage stakeholders
+effectively.</t>
+  </si>
+  <si>
+    <t>Designs and improves tools,
+systems, or products that support
+the organization's mission</t>
+  </si>
+  <si>
+    <t>Plans and executes events that
+support the organization's goals
+and engage its audience.</t>
+  </si>
+  <si>
+    <t>Designs and improves tools,
+systems, or products that support
+the organization's mission.</t>
+  </si>
+  <si>
+    <t>How can we improve the app? What is
+needed to bring it to the next
+level?</t>
+  </si>
+  <si>
+    <t>We look for fitting grants and
+write them.</t>
+  </si>
+  <si>
+    <t>How to find people which are
+aligned with our mission? How can
+they enrich our goals? How do we
+onboard new people?</t>
+  </si>
+  <si>
+    <t>Provides operational support to
+ensure the organization runs
+smoothly.</t>
+  </si>
+  <si>
+    <t>Oversees the allocation and
+management of funds to ensure
+financial sustainability.</t>
+  </si>
+  <si>
+    <t>An individual or team responsible
+for generating donations and
+financial support.</t>
+  </si>
+  <si>
+    <t>The process of overseeing and
+maintaining relationships with the
+organization's members.</t>
+  </si>
+  <si>
+    <t>Coordinates and maintains
+relationships with collaborators
+and stakeholders.</t>
   </si>
   <si>
     <t>Make our app available to 
@@ -742,7 +793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -821,31 +872,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2">
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -859,7 +910,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -868,16 +919,16 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -886,19 +937,19 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -912,7 +963,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -921,16 +972,16 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -939,22 +990,22 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -968,7 +1019,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -977,16 +1028,16 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -995,16 +1046,16 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1018,7 +1069,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1027,16 +1078,16 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1045,25 +1096,25 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1077,7 +1128,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1086,16 +1137,16 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1104,22 +1155,22 @@
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1139,7 +1190,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -1156,14 +1207,17 @@
       <c r="L8">
         <v>15</v>
       </c>
+      <c r="M8" t="s">
+        <v>67</v>
+      </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1180,22 +1234,22 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>15</v>
@@ -1204,13 +1258,13 @@
         <v>68</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1230,16 +1284,16 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1251,13 +1305,13 @@
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1274,22 +1328,22 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11">
         <v>15</v>
@@ -1298,13 +1352,13 @@
         <v>70</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1324,16 +1378,16 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -1345,13 +1399,13 @@
         <v>71</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1371,16 +1425,16 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -1392,13 +1446,13 @@
         <v>72</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1411,17 +1465,20 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
         <v>56</v>
@@ -1430,7 +1487,7 @@
         <v>60</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>15</v>
@@ -1439,13 +1496,13 @@
         <v>73</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1459,7 +1516,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1468,16 +1525,16 @@
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -1489,13 +1546,13 @@
         <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1508,14 +1565,11 @@
       <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
@@ -1524,13 +1578,13 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L16">
         <v>15</v>
@@ -1539,13 +1593,13 @@
         <v>75</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1562,22 +1616,22 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L17">
         <v>15</v>
@@ -1586,13 +1640,13 @@
         <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1609,22 +1663,22 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18">
         <v>15</v>
@@ -1633,13 +1687,13 @@
         <v>77</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1656,22 +1710,22 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L19">
         <v>15</v>
@@ -1680,13 +1734,13 @@
         <v>78</v>
       </c>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1706,16 +1760,16 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20">
         <v>14</v>
@@ -1724,16 +1778,16 @@
         <v>15</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1744,43 +1798,43 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21">
         <v>15</v>
       </c>
       <c r="M21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1791,43 +1845,43 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22">
         <v>15</v>
       </c>
       <c r="M22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1838,28 +1892,28 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L23">
         <v>15</v>
@@ -1868,13 +1922,13 @@
         <v>80</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -1885,19 +1939,22 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>56</v>
@@ -1906,7 +1963,7 @@
         <v>60</v>
       </c>
       <c r="K24">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L24">
         <v>15</v>
@@ -1914,14 +1971,23 @@
       <c r="M24" t="s">
         <v>81</v>
       </c>
+      <c r="N24" t="s">
+        <v>92</v>
+      </c>
       <c r="O24" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="P24" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>110</v>
       </c>
       <c r="R24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1944,16 +2010,16 @@
         <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -1965,10 +2031,10 @@
         <v>82</v>
       </c>
       <c r="N25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P25" t="s">
         <v>105</v>
@@ -1977,10 +2043,10 @@
         <v>111</v>
       </c>
       <c r="R25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2003,16 +2069,16 @@
         <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -2024,22 +2090,22 @@
         <v>83</v>
       </c>
       <c r="N26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P26" t="s">
         <v>106</v>
       </c>
       <c r="Q26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2050,16 +2116,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>52</v>
@@ -2068,37 +2131,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="L27">
         <v>15</v>
       </c>
       <c r="M27" t="s">
-        <v>84</v>
-      </c>
-      <c r="N27" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="O27" t="s">
-        <v>101</v>
-      </c>
-      <c r="P27" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="R27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2115,22 +2169,22 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L28">
         <v>15</v>
@@ -2139,13 +2193,13 @@
         <v>76</v>
       </c>
       <c r="O28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2156,43 +2210,43 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L29">
         <v>15</v>
       </c>
       <c r="M29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2203,7 +2257,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -2212,16 +2266,16 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K30">
         <v>24</v>
@@ -2230,16 +2284,16 @@
         <v>15</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2256,22 +2310,22 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L31">
         <v>15</v>
@@ -2280,13 +2334,13 @@
         <v>85</v>
       </c>
       <c r="O31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2303,22 +2357,22 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L32">
         <v>15</v>
@@ -2327,16 +2381,16 @@
         <v>86</v>
       </c>
       <c r="O32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2344,7 +2398,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -2353,16 +2407,16 @@
         <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33">
         <v>25</v>
@@ -2371,19 +2425,10 @@
         <v>15</v>
       </c>
       <c r="M33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O33" t="s">
-        <v>101</v>
-      </c>
-      <c r="R33" t="s">
-        <v>95</v>
-      </c>
-      <c r="S33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2397,31 +2442,31 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L34">
         <v>15</v>
       </c>
       <c r="M34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2429,37 +2474,37 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L35">
         <v>15</v>
       </c>
       <c r="M35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2467,72 +2512,34 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L36">
         <v>15</v>
       </c>
       <c r="M36" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>56</v>
-      </c>
-      <c r="J37" t="s">
-        <v>60</v>
-      </c>
-      <c r="K37">
-        <v>26</v>
-      </c>
-      <c r="L37">
-        <v>15</v>
-      </c>
-      <c r="M37" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
